--- a/Naming specification/命名规范.xlsx
+++ b/Naming specification/命名规范.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2785A2D3-C03D-4C6E-BA01-6D3EF4A2E8CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0377F6BF-FA90-4F74-BA19-9CCAE8E5530A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1350" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">命名规范 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>价格：price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息弹框：Information box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2816"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,7 +674,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:26" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:26" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
